--- a/output analysis.xlsx
+++ b/output analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa57488ce533f182/Software/KSP Science Checklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{10108947-FC02-45EF-B9B1-0396F89FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49A56318-7B00-4ABF-8059-AAD6B1C035BE}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{10108947-FC02-45EF-B9B1-0396F89FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82037F91-89FC-4EB6-ACD9-4A9EF8BC6D0A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="12600" windowWidth="15552" windowHeight="12696" activeTab="1" xr2:uid="{164BB404-8445-46EF-88EC-AFC8B3D45C87}"/>
+    <workbookView xWindow="-96" yWindow="12600" windowWidth="18984" windowHeight="12696" activeTab="1" xr2:uid="{164BB404-8445-46EF-88EC-AFC8B3D45C87}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -5023,7 +5023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5160,6 +5160,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5589,7 +5597,7 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5632,8 +5640,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5664,20 +5673,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -5708,6 +5716,7 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -5742,10 +5751,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25183,8 +25188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37179136-2044-480D-8C2C-C4A732576D0C}">
   <dimension ref="A1:W734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25253,12 +25258,12 @@
       <c r="K2" t="s">
         <v>1530</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="29" t="s">
         <v>1622</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -25458,8 +25463,8 @@
         <v>1656</v>
       </c>
       <c r="V6">
-        <f>COUNTA(M4:M19)</f>
-        <v>16</v>
+        <f>COUNTA(M4:M18)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -25562,7 +25567,7 @@
       </c>
       <c r="W8">
         <f>V$4 * V$6 * V8</f>
-        <v>4320</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -25615,7 +25620,7 @@
       </c>
       <c r="W9">
         <f t="shared" ref="W9:W24" si="2">V$4 * V$6 * V9</f>
-        <v>864</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -25669,7 +25674,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>1632</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -25712,10 +25717,10 @@
       <c r="N11" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="R11" s="29" t="s">
-        <v>1535</v>
-      </c>
-      <c r="S11" s="29" t="s">
+      <c r="R11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="S11" t="s">
         <v>1629</v>
       </c>
       <c r="U11" t="s">
@@ -25726,7 +25731,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -25775,10 +25780,10 @@
       <c r="P12" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="R12" s="28" t="s">
         <v>1536</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="28" t="s">
         <v>1628</v>
       </c>
       <c r="U12" t="s">
@@ -25789,7 +25794,7 @@
       </c>
       <c r="W12">
         <f t="shared" si="2"/>
-        <v>768</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -25838,10 +25843,10 @@
       <c r="P13" s="15" t="s">
         <v>1546</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="S13" s="31" t="s">
+      <c r="S13" s="7" t="s">
         <v>1531</v>
       </c>
       <c r="U13" t="s">
@@ -25852,7 +25857,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="2"/>
-        <v>768</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -25890,7 +25895,7 @@
         <v>1566</v>
       </c>
       <c r="M14" t="s">
-        <v>1525</v>
+        <v>1555</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>1531</v>
@@ -25901,10 +25906,10 @@
       <c r="P14" s="15" t="s">
         <v>1532</v>
       </c>
-      <c r="R14" s="31" t="s">
+      <c r="R14" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" t="s">
         <v>1546</v>
       </c>
       <c r="U14" t="s">
@@ -25915,11 +25920,11 @@
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>672</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="30" t="s">
         <v>1099</v>
       </c>
       <c r="B15" t="str">
@@ -25953,7 +25958,7 @@
         <v>1567</v>
       </c>
       <c r="M15" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>1546</v>
@@ -25964,10 +25969,10 @@
       <c r="P15" s="15" t="s">
         <v>1627</v>
       </c>
-      <c r="R15" s="29" t="s">
+      <c r="R15" t="s">
         <v>1545</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" t="s">
         <v>1532</v>
       </c>
       <c r="U15" t="s">
@@ -25978,7 +25983,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -26016,7 +26021,7 @@
         <v>1568</v>
       </c>
       <c r="M16" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>1532</v>
@@ -26025,10 +26030,10 @@
         <v>1627</v>
       </c>
       <c r="P16" s="15"/>
-      <c r="R16" s="29" t="s">
+      <c r="R16" t="s">
         <v>1544</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="S16" t="s">
         <v>1627</v>
       </c>
       <c r="U16" t="s">
@@ -26039,7 +26044,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="2"/>
-        <v>672</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -26077,7 +26082,7 @@
         <v>1569</v>
       </c>
       <c r="M17" t="s">
-        <v>1556</v>
+        <v>1631</v>
       </c>
       <c r="N17" s="18" t="s">
         <v>1627</v>
@@ -26092,7 +26097,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="2"/>
-        <v>1152</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -26130,7 +26135,7 @@
         <v>1570</v>
       </c>
       <c r="M18" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="U18" t="s">
         <v>1640</v>
@@ -26178,12 +26183,12 @@
         <v>1571</v>
       </c>
       <c r="M19" t="s">
-        <v>1632</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>1522</v>
-      </c>
-      <c r="O19" s="23" t="s">
+        <v>1525</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O19" s="22" t="s">
         <v>1633</v>
       </c>
       <c r="P19" s="13" t="s">
@@ -26197,7 +26202,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -26234,7 +26239,7 @@
       <c r="K20" t="s">
         <v>1572</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="25" t="s">
         <v>1636</v>
       </c>
       <c r="O20" s="7" t="s">
@@ -26251,7 +26256,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -26288,7 +26293,7 @@
       <c r="K21" t="s">
         <v>1562</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="25" t="s">
         <v>1645</v>
       </c>
       <c r="O21" s="7" t="s">
@@ -26305,7 +26310,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -26342,7 +26347,7 @@
       <c r="K22" t="s">
         <v>1563</v>
       </c>
-      <c r="N22" s="26"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="7"/>
       <c r="P22" s="15" t="s">
         <v>1635</v>
@@ -26355,7 +26360,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -26392,7 +26397,7 @@
       <c r="K23" t="s">
         <v>1564</v>
       </c>
-      <c r="N23" s="26"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="7"/>
       <c r="P23" s="15" t="s">
         <v>1637</v>
@@ -26405,7 +26410,7 @@
       </c>
       <c r="W23">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -26442,7 +26447,7 @@
       <c r="K24" t="s">
         <v>1573</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="7"/>
       <c r="P24" s="15" t="s">
         <v>1638</v>
@@ -26492,7 +26497,7 @@
       <c r="K25" t="s">
         <v>1566</v>
       </c>
-      <c r="N25" s="26"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="7"/>
       <c r="P25" s="15" t="s">
         <v>1639</v>
@@ -26532,7 +26537,7 @@
       <c r="K26" t="s">
         <v>1567</v>
       </c>
-      <c r="N26" s="26"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="7"/>
       <c r="P26" s="15" t="s">
         <v>1641</v>
@@ -26542,7 +26547,7 @@
       </c>
       <c r="W26">
         <f>SUM(W8:W24)</f>
-        <v>13920</v>
+        <v>13050</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -26579,7 +26584,7 @@
       <c r="K27" t="s">
         <v>1568</v>
       </c>
-      <c r="N27" s="26"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="7"/>
       <c r="P27" s="15" t="s">
         <v>1642</v>
@@ -26619,16 +26624,16 @@
       <c r="K28" t="s">
         <v>1569</v>
       </c>
-      <c r="N28" s="26"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="7"/>
       <c r="P28" s="15" t="s">
         <v>1643</v>
       </c>
-      <c r="T28" s="28" t="s">
+      <c r="T28" s="27" t="s">
         <v>1658</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -26664,8 +26669,8 @@
       <c r="K29" t="s">
         <v>1570</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="24"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="20" t="s">
         <v>1644</v>
       </c>
@@ -51363,11 +51368,14 @@
     <mergeCell ref="M2:P2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{1FE75A8A-7A9C-47DA-9E55-BECFA2DE89F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/output analysis.xlsx
+++ b/output analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa57488ce533f182/Software/KSP Science Checklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{10108947-FC02-45EF-B9B1-0396F89FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82037F91-89FC-4EB6-ACD9-4A9EF8BC6D0A}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{10108947-FC02-45EF-B9B1-0396F89FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC48568-08C2-4171-8516-AB6CD5922E9A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="12600" windowWidth="18984" windowHeight="12696" activeTab="1" xr2:uid="{164BB404-8445-46EF-88EC-AFC8B3D45C87}"/>
+    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{164BB404-8445-46EF-88EC-AFC8B3D45C87}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8199" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8199" uniqueCount="1660">
   <si>
     <t>id</t>
   </si>
@@ -4917,15 +4917,9 @@
     <t>- / -</t>
   </si>
   <si>
-    <t>Flyby</t>
-  </si>
-  <si>
     <t>Splashed</t>
   </si>
   <si>
-    <t>Landed</t>
-  </si>
-  <si>
     <t>athmosphereAnalysis</t>
   </si>
   <si>
@@ -5017,6 +5011,9 @@
   </si>
   <si>
     <t>RECOVERY</t>
+  </si>
+  <si>
+    <t>FlewBy</t>
   </si>
 </sst>
 </file>
@@ -5680,10 +5677,10 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5751,6 +5748,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25189,7 +25190,7 @@
   <dimension ref="A1:W734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25258,12 +25259,12 @@
       <c r="K2" t="s">
         <v>1530</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>1622</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -25359,7 +25360,7 @@
         <v>1535</v>
       </c>
       <c r="T4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="V4">
         <f>COUNTA(N4:N9)</f>
@@ -25460,7 +25461,7 @@
         <v>1544</v>
       </c>
       <c r="T6" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="V6">
         <f>COUNTA(M4:M18)</f>
@@ -25557,7 +25558,7 @@
       </c>
       <c r="P8" s="15"/>
       <c r="T8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="U8" t="s">
         <v>1522</v>
@@ -25661,10 +25662,10 @@
         <v>1551</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="U10" t="s">
         <v>1524</v>
@@ -25715,16 +25716,16 @@
         <v>1559</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="R11" t="s">
         <v>1535</v>
       </c>
       <c r="S11" t="s">
-        <v>1629</v>
+        <v>1533</v>
       </c>
       <c r="U11" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -25772,22 +25773,22 @@
         <v>1557</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>1629</v>
+        <v>1533</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>1629</v>
+        <v>1533</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>1629</v>
+        <v>1533</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>1536</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="U12" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="V12">
         <v>8</v>
@@ -25832,10 +25833,10 @@
         <v>1565</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>1531</v>
@@ -25850,7 +25851,7 @@
         <v>1531</v>
       </c>
       <c r="U13" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="V13">
         <v>8</v>
@@ -25913,7 +25914,7 @@
         <v>1546</v>
       </c>
       <c r="U14" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="V14">
         <v>7</v>
@@ -25924,7 +25925,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="B15" t="str">
@@ -25967,7 +25968,7 @@
         <v>1532</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="R15" t="s">
         <v>1545</v>
@@ -25976,7 +25977,7 @@
         <v>1532</v>
       </c>
       <c r="U15" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="V15">
         <v>3</v>
@@ -26027,17 +26028,17 @@
         <v>1532</v>
       </c>
       <c r="O16" t="s">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="P16" s="15"/>
       <c r="R16" t="s">
         <v>1544</v>
       </c>
       <c r="S16" t="s">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="U16" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="V16">
         <v>7</v>
@@ -26082,15 +26083,15 @@
         <v>1569</v>
       </c>
       <c r="M17" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="20"/>
       <c r="U17" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="V17">
         <v>12</v>
@@ -26135,10 +26136,10 @@
         <v>1570</v>
       </c>
       <c r="M18" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="U18" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -26189,13 +26190,13 @@
         <v>1522</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>1523</v>
       </c>
       <c r="U19" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="V19">
         <v>4</v>
@@ -26240,16 +26241,16 @@
         <v>1572</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>1524</v>
       </c>
       <c r="U20" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -26294,16 +26295,16 @@
         <v>1562</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>1529</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="U21" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="V21">
         <v>4</v>
@@ -26350,10 +26351,10 @@
       <c r="N22" s="25"/>
       <c r="O22" s="7"/>
       <c r="P22" s="15" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="U22" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -26400,10 +26401,10 @@
       <c r="N23" s="25"/>
       <c r="O23" s="7"/>
       <c r="P23" s="15" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="U23" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -26450,7 +26451,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="7"/>
       <c r="P24" s="15" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="U24" t="s">
         <v>1529</v>
@@ -26500,7 +26501,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="7"/>
       <c r="P25" s="15" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -26540,10 +26541,10 @@
       <c r="N26" s="25"/>
       <c r="O26" s="7"/>
       <c r="P26" s="15" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="W26">
         <f>SUM(W8:W24)</f>
@@ -26587,7 +26588,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="7"/>
       <c r="P27" s="15" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -26627,10 +26628,10 @@
       <c r="N28" s="25"/>
       <c r="O28" s="7"/>
       <c r="P28" s="15" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26672,7 +26673,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="23"/>
       <c r="P29" s="20" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -26815,7 +26816,7 @@
         <v>1578</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -26853,16 +26854,16 @@
         <v>1572</v>
       </c>
       <c r="M34" t="s">
+        <v>1647</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O34" t="s">
         <v>1649</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>1650</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1651</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1652</v>
       </c>
       <c r="Q34" t="s">
         <v>1541</v>
@@ -26903,7 +26904,7 @@
         <v>1579</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -26944,13 +26945,13 @@
         <v>1525</v>
       </c>
       <c r="N36" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="O36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="P36" t="s">
         <v>1651</v>
-      </c>
-      <c r="P36" t="s">
-        <v>1653</v>
       </c>
       <c r="Q36" s="21"/>
     </row>
